--- a/Users.xlsx
+++ b/Users.xlsx
@@ -448,13 +448,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -526,17 +526,17 @@
         <v>700</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>101</v>
+        <v>333</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>555</v>
+        <v>333</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>15</v>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>Bishkek</t>
+          <t>Chuy</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>Bishkek</t>
+          <t>Chuy</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="E4" s="3" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>101</v>
@@ -610,7 +610,7 @@
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>Bishkek</t>
+          <t>Talas</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>Bishkek</t>
+          <t>Batken</t>
         </is>
       </c>
     </row>
@@ -721,11 +721,11 @@
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>London</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+          <t>Naryn</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="2">
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
@@ -745,7 +745,7 @@
         </is>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="12.8" customHeight="1" s="2">
       <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
@@ -765,7 +765,7 @@
         </is>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="12.8" customHeight="1" s="2">
       <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
@@ -785,7 +785,7 @@
         </is>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="12.8" customHeight="1" s="2">
       <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
@@ -805,7 +805,7 @@
         </is>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="12.8" customHeight="1" s="2">
       <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
@@ -825,7 +825,7 @@
         </is>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="12.8" customHeight="1" s="2">
       <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
@@ -845,7 +845,7 @@
         </is>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="12.8" customHeight="1" s="2">
       <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
@@ -865,23 +865,103 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" ht="12.8" customHeight="1" s="2">
+      <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>SOS</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>SOS</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>SOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="12.8" customHeight="1" s="2">
+      <c r="A16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>pi</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="12.8" customHeight="1" s="2">
+      <c r="A17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>pi3</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>pi3</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>pi3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="12.8" customHeight="1" s="2">
+      <c r="A18" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>pi2</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>pi2</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>pi2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="12.8" customHeight="1" s="2">
+      <c r="A19" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>ene</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>ene</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>ene</t>
         </is>
       </c>
     </row>
@@ -912,7 +992,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -1016,7 +1096,7 @@
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="12.8" customHeight="1" s="2">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -448,13 +448,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="E4" s="3" t="n">
-        <v>223</v>
+        <v>723</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>101</v>
@@ -962,6 +962,26 @@
       <c r="D19" s="3" t="inlineStr">
         <is>
           <t>ene</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Adel</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Adel</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Adel</t>
         </is>
       </c>
     </row>
@@ -989,10 +1009,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="A20:J20 A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
